--- a/Python tutorials/License Plate Webscraper/Plates.xlsx
+++ b/Python tutorials/License Plate Webscraper/Plates.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric.Englin\Documents\GitHub\NPS-Emerging-Mobility\Python tutorials\License Plate Webscraper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EC9FE5-3CB0-4B20-BCCA-E2FB9E4DAAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-2175" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
   <si>
     <t>Plate number</t>
   </si>
@@ -50,443 +31,467 @@
     <t>4389952</t>
   </si>
   <si>
+    <t>558 TH1</t>
+  </si>
+  <si>
+    <t>7SGH10</t>
+  </si>
+  <si>
+    <t>KA-404</t>
+  </si>
+  <si>
+    <t>676332</t>
+  </si>
+  <si>
+    <t>22P-H21</t>
+  </si>
+  <si>
+    <t>849FA0</t>
+  </si>
+  <si>
+    <t>143 LL7</t>
+  </si>
+  <si>
+    <t>78zn27</t>
+  </si>
+  <si>
+    <t>4GS 617</t>
+  </si>
+  <si>
+    <t>S 856</t>
+  </si>
+  <si>
+    <t>4FN271</t>
+  </si>
+  <si>
+    <t>FW806P</t>
+  </si>
+  <si>
+    <t>500-6949</t>
+  </si>
+  <si>
+    <t>1EPW59</t>
+  </si>
+  <si>
+    <t>781-ZD5</t>
+  </si>
+  <si>
+    <t>1DPB30</t>
+  </si>
+  <si>
+    <t>90ES14</t>
+  </si>
+  <si>
+    <t>919-RD9</t>
+  </si>
+  <si>
+    <t>78JA36</t>
+  </si>
+  <si>
+    <t>4511NW</t>
+  </si>
+  <si>
+    <t>5XH468</t>
+  </si>
+  <si>
+    <t>6DV349</t>
+  </si>
+  <si>
+    <t>474GT2</t>
+  </si>
+  <si>
+    <t>1 SHP 50</t>
+  </si>
+  <si>
+    <t>BD-02639</t>
+  </si>
+  <si>
+    <t>466 LG1</t>
+  </si>
+  <si>
+    <t>415-ES6</t>
+  </si>
+  <si>
+    <t>984LX4</t>
+  </si>
+  <si>
+    <t>5350P</t>
+  </si>
+  <si>
+    <t>2RRK56</t>
+  </si>
+  <si>
+    <t>865-SW1</t>
+  </si>
+  <si>
+    <t>4CW642</t>
+  </si>
+  <si>
+    <t>1NY157</t>
+  </si>
+  <si>
+    <t>K 433</t>
+  </si>
+  <si>
+    <t>LYD1023</t>
+  </si>
+  <si>
+    <t>791GY2</t>
+  </si>
+  <si>
+    <t>1fx-366</t>
+  </si>
+  <si>
+    <t>1CPV73</t>
+  </si>
+  <si>
+    <t>33R540</t>
+  </si>
+  <si>
+    <t>3WN917</t>
+  </si>
+  <si>
+    <t>1ZY239</t>
+  </si>
+  <si>
+    <t>2206-ZJ</t>
+  </si>
+  <si>
+    <t>2412RN</t>
+  </si>
+  <si>
+    <t>3VBE 67</t>
+  </si>
+  <si>
+    <t>441K70</t>
+  </si>
+  <si>
+    <t>2TM210</t>
+  </si>
+  <si>
+    <t>1RMN90</t>
+  </si>
+  <si>
+    <t>356TT1</t>
+  </si>
+  <si>
+    <t>269WK1</t>
+  </si>
+  <si>
+    <t>828YEZ</t>
+  </si>
+  <si>
+    <t>3RVS30</t>
+  </si>
+  <si>
+    <t>6RL 962</t>
+  </si>
+  <si>
+    <t>7PL 784</t>
+  </si>
+  <si>
+    <t>486 WE9</t>
+  </si>
+  <si>
+    <t>3FR623</t>
+  </si>
+  <si>
+    <t>1JT897</t>
+  </si>
+  <si>
+    <t>138 WK7</t>
+  </si>
+  <si>
+    <t>29A-Y26</t>
+  </si>
+  <si>
+    <t>38VW10</t>
+  </si>
+  <si>
+    <t>7264ZB</t>
+  </si>
+  <si>
+    <t>712 KL2</t>
+  </si>
+  <si>
+    <t>597-TT5</t>
+  </si>
+  <si>
+    <t>PUCHIKA</t>
+  </si>
+  <si>
+    <t>O98S01</t>
+  </si>
+  <si>
+    <t>1LV100</t>
+  </si>
+  <si>
+    <t>2XSS19</t>
+  </si>
+  <si>
+    <t>2GPT16</t>
+  </si>
+  <si>
+    <t>KNS2212</t>
+  </si>
+  <si>
+    <t>4VD175</t>
+  </si>
+  <si>
+    <t>3VK 731</t>
+  </si>
+  <si>
+    <t>6rdn50</t>
+  </si>
+  <si>
+    <t>531VF6</t>
+  </si>
+  <si>
+    <t>3RVS40</t>
+  </si>
+  <si>
+    <t>42T630</t>
+  </si>
+  <si>
+    <t>293-XOZ</t>
+  </si>
+  <si>
+    <t>477PB5</t>
+  </si>
+  <si>
+    <t>3589038</t>
+  </si>
+  <si>
+    <t>YZ5843</t>
+  </si>
+  <si>
+    <t>2DCR 23</t>
+  </si>
+  <si>
+    <t>BV619A</t>
+  </si>
+  <si>
+    <t>1PGX96</t>
+  </si>
+  <si>
+    <t>414-ES6</t>
+  </si>
+  <si>
+    <t>1862FG</t>
+  </si>
+  <si>
+    <t>1NF436</t>
+  </si>
+  <si>
+    <t>2JX695</t>
+  </si>
+  <si>
+    <t>X3664</t>
+  </si>
+  <si>
+    <t>8ZA386</t>
+  </si>
+  <si>
+    <t>589TA9</t>
+  </si>
+  <si>
+    <t>8RX 590</t>
+  </si>
+  <si>
+    <t>PIP1</t>
+  </si>
+  <si>
+    <t>5YK381</t>
+  </si>
+  <si>
+    <t>1XY 693</t>
+  </si>
+  <si>
+    <t>1GSS28</t>
+  </si>
+  <si>
+    <t>LHUMVtO</t>
+  </si>
+  <si>
+    <t>1LU761</t>
+  </si>
+  <si>
+    <t>4PCN81</t>
+  </si>
+  <si>
+    <t>733GV1</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
     <t>Toyota Camry</t>
   </si>
   <si>
-    <t>558 TH1</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>Honda Civic</t>
   </si>
   <si>
-    <t>7SGH10</t>
-  </si>
-  <si>
     <t>Honda CRV</t>
   </si>
   <si>
-    <t>KA-404</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
     <t>Dodge Grand Caravan</t>
   </si>
   <si>
-    <t>676332</t>
-  </si>
-  <si>
     <t>Honda Accord</t>
   </si>
   <si>
-    <t>22P-H21</t>
-  </si>
-  <si>
     <t>Ford Escape</t>
   </si>
   <si>
-    <t>849FA0</t>
-  </si>
-  <si>
     <t>Honda CR-V</t>
   </si>
   <si>
-    <t>143 LL7</t>
-  </si>
-  <si>
-    <t>78zn27</t>
-  </si>
-  <si>
-    <t>4GS 617</t>
-  </si>
-  <si>
-    <t>S 856</t>
-  </si>
-  <si>
     <t>Dodge Ram</t>
   </si>
   <si>
-    <t>4FN271</t>
-  </si>
-  <si>
-    <t>FW806P</t>
-  </si>
-  <si>
     <t>Ford F-150</t>
   </si>
   <si>
-    <t>500-6949</t>
-  </si>
-  <si>
-    <t>1EPW59</t>
-  </si>
-  <si>
-    <t>781-ZD5</t>
-  </si>
-  <si>
     <t>2014 Honda Accord</t>
   </si>
   <si>
-    <t>1DPB30</t>
-  </si>
-  <si>
     <t>No records</t>
   </si>
   <si>
-    <t>90ES14</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
-    <t>919-RD9</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
-    <t>78JA36</t>
-  </si>
-  <si>
     <t>2014</t>
   </si>
   <si>
-    <t>4511NW</t>
-  </si>
-  <si>
     <t>2010</t>
   </si>
   <si>
-    <t>5XH468</t>
-  </si>
-  <si>
     <t>2007</t>
   </si>
   <si>
-    <t>6DV349</t>
-  </si>
-  <si>
     <t>2017</t>
   </si>
   <si>
-    <t>474GT2</t>
-  </si>
-  <si>
     <t>2009</t>
   </si>
   <si>
-    <t>1 SHP 50</t>
-  </si>
-  <si>
-    <t>BD-02639</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
-    <t>466 LG1</t>
-  </si>
-  <si>
-    <t>415-ES6</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
-    <t>984LX4</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>5350P</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>2RRK56</t>
-  </si>
-  <si>
-    <t>865-SW1</t>
-  </si>
-  <si>
-    <t>4CW642</t>
-  </si>
-  <si>
     <t>2008</t>
   </si>
   <si>
-    <t>1NY157</t>
-  </si>
-  <si>
-    <t>K 433</t>
-  </si>
-  <si>
     <t>2021</t>
   </si>
   <si>
-    <t>LYD1023</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
-    <t>791GY2</t>
-  </si>
-  <si>
     <t>2011</t>
   </si>
   <si>
-    <t>1fx-366</t>
-  </si>
-  <si>
-    <t>1CPV73</t>
-  </si>
-  <si>
     <t>2022</t>
   </si>
   <si>
-    <t>33R540</t>
-  </si>
-  <si>
     <t>2012</t>
   </si>
   <si>
-    <t>3WN917</t>
-  </si>
-  <si>
-    <t>1ZY239</t>
-  </si>
-  <si>
-    <t>2206-ZJ</t>
-  </si>
-  <si>
-    <t>2412RN</t>
-  </si>
-  <si>
-    <t>3VBE 67</t>
-  </si>
-  <si>
-    <t>441K70</t>
-  </si>
-  <si>
-    <t>2TM210</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
-    <t>1RMN90</t>
-  </si>
-  <si>
     <t>2011 Honda CR-V</t>
   </si>
   <si>
-    <t>356TT1</t>
-  </si>
-  <si>
     <t>2017 Honda CR-V</t>
   </si>
   <si>
-    <t>269WK1</t>
-  </si>
-  <si>
     <t>2012 Honda CR-V</t>
   </si>
   <si>
-    <t>828YEZ</t>
-  </si>
-  <si>
-    <t>3RVS30</t>
-  </si>
-  <si>
     <t>2009 Honda CR-V</t>
   </si>
   <si>
-    <t>6RL 962</t>
-  </si>
-  <si>
     <t>2015 Honda CR-V</t>
   </si>
   <si>
-    <t>7PL 784</t>
-  </si>
-  <si>
     <t>2014 Honda CR-V</t>
   </si>
   <si>
-    <t>486 WE9</t>
-  </si>
-  <si>
     <t>2008 Honda CR-V</t>
   </si>
   <si>
-    <t>3FR623</t>
-  </si>
-  <si>
-    <t>1JT897</t>
-  </si>
-  <si>
     <t>2005 Honda CR-V</t>
   </si>
   <si>
-    <t>138 WK7</t>
-  </si>
-  <si>
     <t>2022 Hyundai Palisade</t>
   </si>
   <si>
-    <t>29A-Y26</t>
-  </si>
-  <si>
-    <t>38VW10</t>
-  </si>
-  <si>
     <t>2016 Ford F-150</t>
   </si>
   <si>
-    <t>7264ZB</t>
-  </si>
-  <si>
     <t>2022 Ford F-150</t>
   </si>
   <si>
-    <t>712 KL2</t>
-  </si>
-  <si>
-    <t>597-TT5</t>
-  </si>
-  <si>
-    <t>PUCHIKA</t>
-  </si>
-  <si>
-    <t>O98S01</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>1LV100</t>
-  </si>
-  <si>
-    <t>2XSS19</t>
-  </si>
-  <si>
-    <t>2GPT16</t>
-  </si>
-  <si>
-    <t>KNS2212</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>4VD175</t>
-  </si>
-  <si>
-    <t>293-XOZ</t>
-  </si>
-  <si>
-    <t>477PB5</t>
-  </si>
-  <si>
-    <t>3589038</t>
-  </si>
-  <si>
-    <t>YZ5843</t>
-  </si>
-  <si>
-    <t>2DCR 23</t>
-  </si>
-  <si>
-    <t>BV619A</t>
-  </si>
-  <si>
-    <t>1PGX96</t>
-  </si>
-  <si>
-    <t>3VK 731</t>
-  </si>
-  <si>
-    <t>414-ES6</t>
-  </si>
-  <si>
-    <t>1862FG</t>
-  </si>
-  <si>
-    <t>1NF436</t>
-  </si>
-  <si>
-    <t>6rdn50</t>
-  </si>
-  <si>
-    <t>2JX695</t>
-  </si>
-  <si>
-    <t>X3664</t>
-  </si>
-  <si>
-    <t>42T630</t>
-  </si>
-  <si>
-    <t>8ZA386</t>
-  </si>
-  <si>
-    <t>3RVS40</t>
-  </si>
-  <si>
-    <t>589TA9</t>
-  </si>
-  <si>
-    <t>531VF6</t>
-  </si>
-  <si>
-    <t>8RX 590</t>
-  </si>
-  <si>
-    <t>PIP1</t>
-  </si>
-  <si>
-    <t>5YK381</t>
-  </si>
-  <si>
-    <t>1XY 693</t>
-  </si>
-  <si>
-    <t>1GSS28</t>
-  </si>
-  <si>
-    <t>LHUMVtO</t>
-  </si>
-  <si>
-    <t>1LU761</t>
-  </si>
-  <si>
-    <t>4PCN81</t>
-  </si>
-  <si>
-    <t>733GV1</t>
+    <t>2020 Jeep Grand Cherokee</t>
+  </si>
+  <si>
+    <t>2017 Jeep Grand Cherokee</t>
+  </si>
+  <si>
+    <t>2005 Ford F-150</t>
+  </si>
+  <si>
+    <t>2016 Honda CR-V</t>
+  </si>
+  <si>
+    <t>2010 Honda Civic</t>
+  </si>
+  <si>
+    <t>2013 Honda Civic</t>
+  </si>
+  <si>
+    <t>2019 Jeep Cherokee</t>
+  </si>
+  <si>
+    <t>2014 Jeep Grand Cherokee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,7 +502,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -546,14 +554,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -841,16 +841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -872,1044 +870,1044 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>1996</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D3">
         <v>2005</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>2011</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>2013</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <v>2015</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D10">
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D11">
         <v>2016</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D12">
         <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D13">
         <v>2017</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <v>2018</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D15">
         <v>2020</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D16">
         <v>2099</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D17">
         <v>2014</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D18">
         <v>2099</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D19">
         <v>2003</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D20">
         <v>2013</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D21">
         <v>2014</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D22">
         <v>2010</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D23">
         <v>2007</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>2017</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D25">
         <v>2009</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D26">
         <v>2009</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="D27">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>2015</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>2000</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D30">
         <v>2099</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="D31">
         <v>2010</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>2013</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>2014</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D34">
         <v>2008</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D35">
         <v>2014</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D36">
         <v>2021</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D37">
         <v>2016</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D38">
         <v>2011</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D39">
         <v>2017</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D40">
         <v>2022</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D41">
         <v>2012</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D42">
         <v>2014</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D43">
         <v>2010</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D44">
         <v>2013</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D45">
         <v>2014</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D46">
         <v>2021</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D47">
         <v>2008</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D48">
         <v>2018</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D49">
         <v>2011</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D50">
         <v>2017</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D51">
         <v>2012</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D52">
         <v>2011</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D53">
         <v>2009</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D54">
         <v>2015</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D55">
         <v>2014</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D56">
         <v>2008</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D57">
         <v>2014</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D58">
         <v>2005</v>
       </c>
       <c r="E58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D59">
         <v>2022</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D60">
         <v>2015</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D61">
         <v>2016</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="D62">
         <v>2022</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D63">
         <v>2009</v>
@@ -1918,15 +1916,15 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D64">
         <v>2010</v>
@@ -1935,26 +1933,32 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="D65">
+        <v>2020</v>
+      </c>
+      <c r="E65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D66">
         <v>2015</v>
@@ -1963,15 +1967,15 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D67">
         <v>2015</v>
@@ -1980,15 +1984,15 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D68">
         <v>2000</v>
@@ -1997,15 +2001,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D69">
         <v>2099</v>
@@ -2014,15 +2018,15 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D70">
         <v>2013</v>
@@ -2031,329 +2035,371 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="D71">
+        <v>2017</v>
+      </c>
+      <c r="E71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72">
+        <v>2005</v>
+      </c>
+      <c r="E72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73">
+        <v>2016</v>
+      </c>
+      <c r="E73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74">
+        <v>2010</v>
+      </c>
+      <c r="E74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="B72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75">
+        <v>2013</v>
+      </c>
+      <c r="E75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76">
+        <v>2019</v>
+      </c>
+      <c r="E76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77">
+        <v>2014</v>
+      </c>
+      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>81</v>
       </c>
-      <c r="B73" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>88</v>
-      </c>
-      <c r="B74" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>86</v>
-      </c>
-      <c r="B75" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="C79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>84</v>
       </c>
-      <c r="B76" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>70</v>
-      </c>
-      <c r="B77" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>71</v>
-      </c>
-      <c r="B78" t="s">
-        <v>122</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>72</v>
-      </c>
-      <c r="B79" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>73</v>
-      </c>
-      <c r="B80" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>74</v>
-      </c>
-      <c r="B81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>75</v>
-      </c>
-      <c r="B82" t="s">
-        <v>126</v>
-      </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D82">
         <v>2024</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>